--- a/visa/20012026/100 output.xlsx
+++ b/visa/20012026/100 output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Data\PycharmProjects\pythonProject1\venv\visa\20012026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Data\PycharmProjects\pythonProject1\github\venv\visa\20012026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B902CE-0713-4524-9D3E-348B9B06BC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5A384-A3D3-4FB9-A3E2-7D0D6C1645F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="704">
   <si>
     <t>keyword</t>
   </si>
@@ -2134,13 +2134,16 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Co.opmart+Hu%E1%BB%B3nh+T%E1%BA%A5n+Ph%C3%A1t/@10.7122446,106.7363608,17z/data=!3m1!4b1!4m6!3m5!1s0x31752545154f077b:0x5cd3e1f858ff5eff!8m2!3d10.7122446!4d106.7363608!16s%2Fg%2F11f102g_kt?entry=ttu&amp;g_ep=EgoyMDI2MDExOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,16 +2151,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2165,12 +2188,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2451,2956 +2542,7686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:L1202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>70403</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>70404</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>70405</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>70406</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>70407</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>70408</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>70409</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>704011</v>
+      </c>
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>79</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>80</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>82</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>704012</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>87</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>89</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>704013</v>
+      </c>
+      <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>95</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>704014</v>
+      </c>
+      <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>103</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>104</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>105</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>704015</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>113</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>114</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>704016</v>
+      </c>
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>118</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>120</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>121</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>122</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>123</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>704017</v>
+      </c>
+      <c r="B15" t="s">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>127</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>129</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>71</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>130</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>704018</v>
+      </c>
+      <c r="B16" t="s">
         <v>133</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>134</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>139</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>704019</v>
+      </c>
+      <c r="B17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>142</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>144</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>145</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>71</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>146</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>147</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>704020</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>151</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>152</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>153</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>154</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>155</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>704021</v>
+      </c>
+      <c r="B19" t="s">
         <v>158</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>160</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>161</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>162</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>71</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>163</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>164</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>704022</v>
+      </c>
+      <c r="B20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>167</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>168</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>169</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>704023</v>
+      </c>
+      <c r="B21" t="s">
         <v>172</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>174</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>175</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>176</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>71</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>177</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>704024</v>
+      </c>
+      <c r="B22" t="s">
         <v>180</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>181</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>182</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>183</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>184</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>185</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>186</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>187</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>704025</v>
+      </c>
+      <c r="B23" t="s">
         <v>189</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>190</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>191</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>194</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>195</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>196</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>704026</v>
+      </c>
+      <c r="B24" t="s">
         <v>198</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>199</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>200</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>201</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>202</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>203</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>204</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>205</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>704027</v>
+      </c>
+      <c r="B25" t="s">
         <v>207</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>208</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>209</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>210</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>211</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>212</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>121</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>213</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>214</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>704028</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>120</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>121</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>122</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>123</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>704029</v>
+      </c>
+      <c r="B27" t="s">
         <v>216</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>217</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>218</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>219</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>220</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>221</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>222</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>223</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>704030</v>
+      </c>
+      <c r="B28" t="s">
         <v>225</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>226</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>227</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>228</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>229</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>230</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>231</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>232</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>704031</v>
+      </c>
+      <c r="B29" t="s">
         <v>234</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>235</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>236</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>237</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>238</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>71</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>239</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>240</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>704032</v>
+      </c>
+      <c r="B30" t="s">
         <v>242</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>243</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>244</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>245</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>246</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>25</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>71</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>247</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>248</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>704033</v>
+      </c>
+      <c r="B31" t="s">
         <v>250</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>251</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>252</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>253</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>254</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>255</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>256</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>257</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>258</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>704034</v>
+      </c>
+      <c r="B32" t="s">
         <v>260</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>261</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>262</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>263</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>264</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>265</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>704035</v>
+      </c>
+      <c r="B33" t="s">
         <v>267</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>268</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>269</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>270</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>271</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>71</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>272</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>273</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>704036</v>
+      </c>
+      <c r="B34" t="s">
         <v>275</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>276</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>277</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>278</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>221</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>279</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>280</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>704037</v>
+      </c>
+      <c r="B35" t="s">
         <v>282</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>283</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>284</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>285</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>71</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>286</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>287</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>704038</v>
+      </c>
+      <c r="B36" t="s">
         <v>289</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>290</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>291</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>292</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>293</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>294</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>295</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>296</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>704039</v>
+      </c>
+      <c r="B37" t="s">
         <v>298</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>299</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>300</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>302</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>303</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>304</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>704040</v>
+      </c>
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>306</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>307</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>308</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>71</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>310</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>311</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>704041</v>
+      </c>
+      <c r="B39" t="s">
         <v>267</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>268</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>269</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>270</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>271</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>71</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>272</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>273</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>704042</v>
+      </c>
+      <c r="B40" t="s">
         <v>313</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>314</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>315</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>316</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>317</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>318</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>319</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>320</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>704043</v>
+      </c>
+      <c r="B41" t="s">
         <v>322</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>323</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>324</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>25</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>325</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>326</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>327</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>704044</v>
+      </c>
+      <c r="B42" t="s">
         <v>329</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>330</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>331</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>332</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>333</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>25</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>325</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>334</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>335</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>704045</v>
+      </c>
+      <c r="B43" t="s">
         <v>337</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>338</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>339</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>340</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>341</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>71</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>342</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>343</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>704046</v>
+      </c>
+      <c r="B44" t="s">
         <v>345</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>346</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>347</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>25</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>348</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>349</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>350</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>704047</v>
+      </c>
+      <c r="B45" t="s">
         <v>352</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>353</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>354</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>355</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>356</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>25</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>357</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>358</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>359</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>704048</v>
+      </c>
+      <c r="B46" t="s">
         <v>361</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>362</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>363</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>364</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>365</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>25</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>366</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>367</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>368</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>704049</v>
+      </c>
+      <c r="B47" t="s">
         <v>370</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>371</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>372</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>373</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>374</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>25</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>375</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>376</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>377</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>704050</v>
+      </c>
+      <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>379</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>380</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>381</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>382</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>383</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>384</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>704051</v>
+      </c>
+      <c r="B49" t="s">
         <v>386</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>387</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>388</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>389</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>390</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>391</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>392</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>393</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>394</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>704053</v>
+      </c>
+      <c r="B50" t="s">
         <v>396</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>397</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>398</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>399</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>400</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>16</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>401</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>402</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>704054</v>
+      </c>
+      <c r="B51" t="s">
         <v>404</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>405</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>406</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>407</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>263</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>16</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>408</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>409</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>704056</v>
+      </c>
+      <c r="B52" t="s">
         <v>411</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>412</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>413</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>414</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>415</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>416</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>417</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>704057</v>
+      </c>
+      <c r="B53" t="s">
         <v>225</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>226</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>419</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>420</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>421</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>422</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>423</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>424</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>704058</v>
+      </c>
+      <c r="B54" t="s">
         <v>426</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>427</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>428</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>429</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>430</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>431</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>432</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>433</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>704059</v>
+      </c>
+      <c r="B55" t="s">
         <v>411</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>412</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>413</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>414</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>415</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>416</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>417</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>704060</v>
+      </c>
+      <c r="B56" t="s">
         <v>435</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>436</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>437</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>438</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>439</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>440</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>441</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>442</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>704061</v>
+      </c>
+      <c r="B57" t="s">
         <v>444</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>445</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>446</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>447</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>448</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>71</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>449</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>450</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>704062</v>
+      </c>
+      <c r="B58" t="s">
         <v>452</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>453</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>454</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>455</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>456</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>457</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>458</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>459</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>704064</v>
+      </c>
+      <c r="B59" t="s">
         <v>461</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>111</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>112</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>104</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>105</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>113</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>114</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>704065</v>
+      </c>
+      <c r="B60" t="s">
         <v>462</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>463</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>464</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>465</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>466</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>467</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>468</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>704066</v>
+      </c>
+      <c r="B61" t="s">
         <v>470</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>471</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>472</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>473</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>25</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>71</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>474</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>475</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>704067</v>
+      </c>
+      <c r="B62" t="s">
         <v>477</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>478</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>479</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>480</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>399</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>400</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>481</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>482</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>483</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>704068</v>
+      </c>
+      <c r="B63" t="s">
         <v>485</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>486</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>487</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>71</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>488</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>489</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>704070</v>
+      </c>
+      <c r="B64" t="s">
         <v>242</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>243</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>244</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>245</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>246</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>25</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>71</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>247</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>248</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>704071</v>
+      </c>
+      <c r="B65" t="s">
         <v>477</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>478</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>479</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>480</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>399</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>400</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>481</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>482</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>483</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>704072</v>
+      </c>
+      <c r="B66" t="s">
         <v>491</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>492</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>493</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>494</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>495</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>16</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>496</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>497</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>704073</v>
+      </c>
+      <c r="B67" t="s">
         <v>499</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>500</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>501</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>71</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>502</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>503</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>704074</v>
+      </c>
+      <c r="B68" t="s">
         <v>505</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>506</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>507</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>508</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>509</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>510</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>71</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>511</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>512</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>704075</v>
+      </c>
+      <c r="B69" t="s">
         <v>514</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>515</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>516</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>517</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>518</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>71</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>519</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>520</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>704076</v>
+      </c>
+      <c r="B70" t="s">
         <v>234</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>522</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>523</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>524</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>525</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>71</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>526</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>527</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>704079</v>
+      </c>
+      <c r="B71" t="s">
         <v>529</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>530</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>531</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>532</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>533</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>534</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>121</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>535</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>536</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>704080</v>
+      </c>
+      <c r="B72" t="s">
         <v>538</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>539</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>540</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>405</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>71</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>408</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>409</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>704081</v>
+      </c>
+      <c r="B73" t="s">
         <v>538</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>539</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>540</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>405</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>71</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>408</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>409</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>704082</v>
+      </c>
+      <c r="B74" t="s">
         <v>477</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>478</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>479</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>480</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>399</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>400</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>481</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>482</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>483</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>704083</v>
+      </c>
+      <c r="B75" t="s">
         <v>542</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>543</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>544</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>71</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>545</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>546</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>704084</v>
+      </c>
+      <c r="B76" t="s">
         <v>477</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>478</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>479</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>480</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>399</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>400</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>481</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>482</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>483</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>704085</v>
+      </c>
+      <c r="B77" t="s">
         <v>548</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>549</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>550</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>551</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>552</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>71</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>553</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>554</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>704086</v>
+      </c>
+      <c r="B78" t="s">
         <v>556</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>557</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>558</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>71</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>559</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>560</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>704088</v>
+      </c>
+      <c r="B79" t="s">
         <v>538</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>562</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>563</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>263</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>16</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>564</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>565</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>704089</v>
+      </c>
+      <c r="B80" t="s">
         <v>567</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>568</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>569</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>570</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>571</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>572</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>573</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>704090</v>
+      </c>
+      <c r="B81" t="s">
         <v>575</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>576</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>577</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>578</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>579</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>25</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>580</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>581</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>582</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>704091</v>
+      </c>
+      <c r="B82" t="s">
         <v>584</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>585</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>586</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>587</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>588</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>71</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>589</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>590</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>704093</v>
+      </c>
+      <c r="B83" t="s">
         <v>592</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>593</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>594</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>595</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>596</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>597</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>598</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>599</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>704095</v>
+      </c>
+      <c r="B84" t="s">
         <v>477</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>478</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>479</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>480</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>399</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>400</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>481</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>482</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>483</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>704098</v>
+      </c>
+      <c r="B85" t="s">
         <v>411</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>601</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>602</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>603</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>604</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>415</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>605</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>606</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>704099</v>
+      </c>
+      <c r="B86" t="s">
         <v>396</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>478</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>479</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>480</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>399</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>400</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>481</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>482</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>483</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>7040100</v>
+      </c>
+      <c r="B87" t="s">
         <v>608</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>609</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>610</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>611</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>612</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>613</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>614</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>615</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>7040101</v>
+      </c>
+      <c r="B88" t="s">
         <v>617</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>618</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>619</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>620</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>71</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>621</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>622</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>7040103</v>
+      </c>
+      <c r="B89" t="s">
         <v>608</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>609</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>610</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>210</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>611</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>612</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>613</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>614</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>615</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>7040104</v>
+      </c>
+      <c r="B90" t="s">
         <v>624</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>625</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>626</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>627</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>628</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>71</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>629</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>630</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>7040105</v>
+      </c>
+      <c r="B91" t="s">
         <v>632</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>633</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>634</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>635</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>636</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>637</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>638</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>639</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>640</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>7040106</v>
+      </c>
+      <c r="B92" t="s">
         <v>642</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>643</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>644</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>480</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>645</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>646</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>647</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>648</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>649</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>7040107</v>
+      </c>
+      <c r="B93" t="s">
         <v>651</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>652</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>653</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>654</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>655</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>25</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>71</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>656</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>657</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>7040109</v>
+      </c>
+      <c r="B94" t="s">
         <v>659</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>660</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>661</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>662</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>33</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>87</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>35</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>663</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>664</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>7040110</v>
+      </c>
+      <c r="B95" t="s">
         <v>666</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>667</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>668</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>669</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>670</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>671</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>672</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>673</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>7040111</v>
+      </c>
+      <c r="B96" t="s">
         <v>675</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>676</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>677</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>71</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>678</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>679</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>7040112</v>
+      </c>
+      <c r="B97" t="s">
         <v>681</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>682</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>683</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>684</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>71</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>685</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>686</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>7040113</v>
+      </c>
+      <c r="B98" t="s">
         <v>688</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>689</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>690</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>691</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>229</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>71</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>692</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>693</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>7040115</v>
+      </c>
+      <c r="B99" t="s">
         <v>695</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>696</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>697</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>698</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>699</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>203</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>700</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>701</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>7040116</v>
+      </c>
+      <c r="B100" t="s">
         <v>477</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>478</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>479</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>480</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>399</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>400</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>481</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>482</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>483</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>484</v>
       </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>7040117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>7040118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>7040119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>7040120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>7040121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>7040122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>7040123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>7040126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>7040127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>7040130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>7040131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>7040132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>7040133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>7040134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>7040136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>7040137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>7040138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>7040140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>7040142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>7040143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>7040144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>7040149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>7040150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>7040151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>7040152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>7040153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>7040154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>7040155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>7040156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>7040157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>7040158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>7040160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>7040161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>7040163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>7040164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>7040165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>7040166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>7040167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>7040168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>7040169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>7040171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>7040172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>7040173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>7040174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>7040178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>7040179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>7040180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>7040183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>7040184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>7040186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>7040187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>7040188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>7040189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>7040190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>7040191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>7040192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>7040193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>7040194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>7040195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>7040197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>7040198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>7040200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>7040202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>7040203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>7040204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>7040205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>7040207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>7040208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>7040209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>7040211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>7040212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>7040214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>7040215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>7040218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>7040219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>7040220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>7040225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>7040230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>7040307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>7040657</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>7040932</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>7040956</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>7040969</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>7041111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>7041112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>7041113</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>7041114</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>7041115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>7041116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>7041117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>7041118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>7041119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>7042981</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>7042982</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>7042983</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>7042984</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>7042986</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>7042987</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>7042988</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>7042989</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>7044252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>7044253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>7044254</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>7044255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>7044257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>7047011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>7047012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>7047013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>7047016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>7047017</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>70401022</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>70401150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>70401446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>70401454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>70401691</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>70402400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>70402738</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>70403104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>70403316</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>70403354</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>70403707</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>70403863</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>70404015</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>70404202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>70404221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>70405163</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>70405883</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>70406513</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>70406549</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>70406660</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>70406886</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>70407005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>70407070</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>70407098</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>70407469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>70407693</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>70407773</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>70408216</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>70409099</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>70409183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>70409592</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>70411110</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>70411111</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>70411112</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>70411113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>70411114</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>70411115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>70411116</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>70411117</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>70411118</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>70411119</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>70411120</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>70411121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>70411125</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>70411127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>70411129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>70411139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>70411140</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>70411141</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>70411142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>70411143</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>70411144</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>70411145</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>70411146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>70411147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>70411148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>70411149</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>70411150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>70411151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>70411152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>70411157</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>70411159</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>70411160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>70411161</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>70411163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>70411165</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>70411168</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>70411169</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>70411170</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>70411172</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>70411173</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>70411175</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>70411180</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>70411182</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>70411183</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>70411190</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>70411192</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>70411193</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>70411195</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>70411198</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>70421067</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>70429810</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>70429811</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>70429813</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>70429814</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>70429815</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>70429816</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>70429819</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>70429821</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>70429824</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>70429825</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>70429826</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>70429827</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>70429828</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>70429829</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>70429830</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>70429831</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>70429832</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>70429834</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>70429835</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>70429836</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>70429838</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>70429840</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>70429841</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>70429842</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>70429843</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>70429844</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>70429845</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>70429846</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>70429847</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>70429848</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>70429852</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>70429853</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>70429854</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>70429856</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>70429860</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>70429864</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>70429866</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>70429870</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>70429871</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>70429873</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>70429874</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>70429877</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>70429878</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>70429881</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>70429884</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>70429885</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>70429886</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>70429888</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>70429889</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>70429890</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>70429895</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>70432598</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>70442510</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>70442512</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>70442513</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>70442514</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>70442515</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>70442517</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>70442518</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>70442519</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>70442520</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>70442522</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>70442525</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>70442529</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>70442531</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>70442534</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>70442535</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>70442536</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>70442538</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>70442539</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>70442541</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>70442542</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>70442544</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>70442547</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>70442550</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>70442553</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>70442555</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>70442556</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>70442558</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>70442561</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>70442562</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>70442565</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>70442566</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>70442567</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>70442570</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>70442572</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>70442573</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>70442576</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>70442577</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>70442583</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>70442586</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>70442587</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>70442588</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>70442590</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>70442591</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>70442592</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>70442593</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>70442595</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>70442599</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>70470113</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>70470115</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>70470116</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>70470137</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>70470139</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>70470142</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>70470145</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>70470147</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>70470152</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>70470159</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>70470176</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>70470181</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>70470184</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>70470191</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>704010958</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>704011735</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>704012037</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>704013068</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>704013929</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>704014527</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>704014649</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>704015118</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>704018271</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>704019751</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>704027175</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>704027493</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>704028028</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>704030139</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>704030657</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>704031028</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>704033380</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>704033975</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>704034286</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>704034962</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>704035676</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>704037429</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>704038025</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>704041499</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>704042612</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>704045380</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>704046378</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>704049710</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>704055867</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>704062875</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>704071205</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>704073504</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>704074709</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>704111109</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>704111111</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>704111120</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>704111132</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>704111145</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>704111146</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>704111148</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>704111149</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>704111152</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>704111158</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>704111167</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>704111169</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>704111170</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>704111171</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>704111172</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>704111178</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>704111179</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>704111183</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>704111189</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>704111190</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>704111192</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>704111193</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>704111195</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>704111202</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>704111203</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>704111205</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>704111207</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>704111210</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>704111214</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>704111221</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>704111223</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>704111229</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>704111280</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>704111378</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>704111493</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>704111558</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>704111570</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>704111769</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>704111793</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>704111826</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>704111908</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>704111966</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>704298104</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>704298106</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>704298107</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>704298114</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>704298118</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>704298124</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>704298125</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>704298140</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>704298146</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>704298147</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>704298149</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>704298154</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>704298174</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>704298175</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>704298176</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>704298197</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>704298209</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>704298214</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>704298219</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>704298220</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>704298271</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>704298276</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>704298309</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>704298393</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>704298428</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>704298622</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>704298766</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>704298812</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>704298880</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <v>704425101</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>704425103</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>704425108</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>704425110</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>704425112</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>704425119</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>704425121</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>704425129</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>704425132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>704425141</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>704425143</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>704425144</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>704425152</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>704425155</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>704425157</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>704425160</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>704425162</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>704425170</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>704425174</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>704425176</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>704425178</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>704425180</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>704425181</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>704425182</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>704425184</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>704425185</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>704425188</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>704425193</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>704425197</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>704425198</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>704425200</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>704425205</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>704425215</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>704425220</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>704425223</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>704425225</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>704425287</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>704701100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>704701103</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>704701139</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>704701159</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>704701161</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>704701165</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>704701169</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>704701170</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>704701179</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>704701181</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>704701218</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>704701222</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>704701225</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>7041111014</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>7041111164</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>7041111364</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>7041111437</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>7041111480</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>7041111534</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>7041112014</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>7041112223</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>7041112254</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>7041112276</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>7041112301</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>7041112440</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>7041112447</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3">
+        <v>7041112487</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>7041112629</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3">
+        <v>7041113032</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>7041113282</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3">
+        <v>7041113437</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3">
+        <v>7041113529</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3">
+        <v>7041113987</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3">
+        <v>7041114122</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3">
+        <v>7041114248</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3">
+        <v>7041114511</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3">
+        <v>7041114613</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="3">
+        <v>7041115093</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3">
+        <v>7041115101</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3">
+        <v>7041115159</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3">
+        <v>7041115249</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3">
+        <v>7041115437</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3">
+        <v>7041115439</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3">
+        <v>7041115955</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="3">
+        <v>7041116205</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="3">
+        <v>7041116307</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3">
+        <v>7041116446</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3">
+        <v>7041116728</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3">
+        <v>7041116898</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>7041117224</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3">
+        <v>7041117556</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3">
+        <v>7041117619</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3">
+        <v>7041117942</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3">
+        <v>7041118148</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3">
+        <v>7041119753</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3">
+        <v>7042981106</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="3">
+        <v>7042981161</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3">
+        <v>7042981175</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3">
+        <v>7042981215</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3">
+        <v>7042982348</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3">
+        <v>7042983018</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3">
+        <v>7042983274</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3">
+        <v>7042983718</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3">
+        <v>7042984138</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3">
+        <v>7042984308</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3">
+        <v>7042984630</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3">
+        <v>7042985172</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3">
+        <v>7042985705</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3">
+        <v>7042985998</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3">
+        <v>7042986328</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3">
+        <v>7042986855</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3">
+        <v>7042987564</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3">
+        <v>7042988555</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3">
+        <v>7042988962</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3">
+        <v>7042989121</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3">
+        <v>7042989812</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3">
+        <v>7044251913</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3">
+        <v>7044254177</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3">
+        <v>7044254327</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3">
+        <v>7044255439</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3">
+        <v>7044255599</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3">
+        <v>7044257413</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3">
+        <v>7044258513</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3">
+        <v>7047011299</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3">
+        <v>7047012227</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3">
+        <v>7047012292</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3">
+        <v>7047013458</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3">
+        <v>7047016811</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3">
+        <v>7047016859</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3">
+        <v>7047019293</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3">
+        <v>70411111002</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3">
+        <v>70411111917</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3">
+        <v>70411112982</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3">
+        <v>70429810038</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3">
+        <v>70429810544</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3">
+        <v>70429811995</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3">
+        <v>70429820284</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3">
+        <v>70442510517</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3">
+        <v>70442512483</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3">
+        <v>70442514028</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3">
+        <v>70442515802</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3">
+        <v>70442515979</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3">
+        <v>70442516873</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3">
+        <v>70442518953</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3">
+        <v>70442520132</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="3">
+        <v>70442521388</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="3">
+        <v>70442533159</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3">
+        <v>70442539639</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3">
+        <v>70442540412</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3">
+        <v>70470110575</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3">
+        <v>70470112830</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3">
+        <v>70470118402</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3">
+        <v>70470120953</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3">
+        <v>70470121837</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="5">
+        <v>70470124026</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858"/>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860"/>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861"/>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862"/>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863"/>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881"/>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892"/>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893"/>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894"/>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895"/>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896"/>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897"/>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898"/>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900"/>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901"/>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902"/>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904"/>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906"/>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908"/>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910"/>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912"/>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914"/>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915"/>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916"/>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918"/>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920"/>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921"/>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922"/>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924"/>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926"/>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928"/>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930"/>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932"/>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934"/>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936"/>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938"/>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940"/>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941"/>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942"/>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944"/>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945"/>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946"/>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947"/>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948"/>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949"/>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950"/>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951"/>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952"/>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953"/>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954"/>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955"/>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956"/>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957"/>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958"/>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959"/>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960"/>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961"/>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962"/>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963"/>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964"/>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965"/>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966"/>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967"/>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968"/>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969"/>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970"/>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971"/>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972"/>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973"/>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974"/>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975"/>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976"/>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977"/>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978"/>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979"/>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980"/>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981"/>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982"/>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983"/>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984"/>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985"/>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986"/>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987"/>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988"/>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989"/>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990"/>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991"/>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992"/>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993"/>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994"/>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995"/>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996"/>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997"/>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998"/>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999"/>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000"/>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001"/>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002"/>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003"/>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004"/>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005"/>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006"/>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007"/>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008"/>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009"/>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010"/>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011"/>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012"/>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013"/>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014"/>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015"/>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016"/>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017"/>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018"/>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019"/>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020"/>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021"/>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022"/>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023"/>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024"/>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025"/>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026"/>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027"/>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029"/>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030"/>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031"/>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032"/>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033"/>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034"/>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035"/>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036"/>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037"/>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038"/>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039"/>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040"/>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041"/>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042"/>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043"/>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044"/>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045"/>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046"/>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047"/>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048"/>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049"/>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050"/>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051"/>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052"/>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053"/>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054"/>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055"/>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056"/>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057"/>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058"/>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059"/>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060"/>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061"/>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062"/>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063"/>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064"/>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065"/>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067"/>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068"/>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069"/>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070"/>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071"/>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072"/>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073"/>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075"/>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076"/>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077"/>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078"/>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079"/>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080"/>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081"/>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082"/>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083"/>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084"/>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085"/>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086"/>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087"/>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088"/>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089"/>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090"/>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091"/>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092"/>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093"/>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094"/>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095"/>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096"/>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097"/>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098"/>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099"/>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100"/>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101"/>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102"/>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103"/>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104"/>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105"/>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106"/>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107"/>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108"/>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109"/>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110"/>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111"/>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112"/>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113"/>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114"/>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115"/>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116"/>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117"/>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118"/>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119"/>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120"/>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121"/>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122"/>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123"/>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124"/>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125"/>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126"/>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127"/>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128"/>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129"/>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130"/>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131"/>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132"/>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133"/>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134"/>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135"/>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136"/>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137"/>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138"/>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139"/>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140"/>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141"/>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142"/>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143"/>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144"/>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145"/>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146"/>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147"/>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148"/>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149"/>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150"/>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151"/>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152"/>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153"/>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154"/>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155"/>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156"/>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157"/>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158"/>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159"/>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160"/>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161"/>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162"/>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163"/>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164"/>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165"/>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166"/>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167"/>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168"/>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169"/>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170"/>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171"/>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172"/>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173"/>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174"/>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175"/>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176"/>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177"/>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178"/>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179"/>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180"/>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181"/>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182"/>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183"/>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184"/>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185"/>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186"/>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187"/>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188"/>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189"/>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190"/>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191"/>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192"/>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193"/>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194"/>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195"/>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196"/>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197"/>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198"/>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199"/>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200"/>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201"/>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/visa/20012026/100 output.xlsx
+++ b/visa/20012026/100 output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Data\PycharmProjects\pythonProject1\github\venv\visa\20012026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5A384-A3D3-4FB9-A3E2-7D0D6C1645F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3211EA-E5CE-4F59-B9EF-9A21295BD274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,6 +2555,11 @@
     <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
